--- a/src/test/resources/test_files/Concatenation/output5.xlsx
+++ b/src/test/resources/test_files/Concatenation/output5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://airarabia-my.sharepoint.com/personal/malhaq_isa_ae1/Documents/Documents/ExcelColumnConvert/ExcelColumnConvert/src/test/resources/test_files/Concatenation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_1E1A45A959F66FFC05FC9890E2FCDA74EA589DD0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAF8992C-B4BC-4D0B-8CE2-0DE15E78B513}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_1E1A45A959F66FFC05FC9890E2FCDA74EA589DD0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61AD2408-2857-4912-8238-07A17F42599B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -81,6 +82,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,7 +378,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,7 +423,7 @@
       <c r="B4">
         <v>40</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>400</v>
       </c>
     </row>

--- a/src/test/resources/test_files/Concatenation/output5.xlsx
+++ b/src/test/resources/test_files/Concatenation/output5.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://airarabia-my.sharepoint.com/personal/malhaq_isa_ae1/Documents/Documents/ExcelColumnConvert/ExcelColumnConvert/src/test/resources/test_files/Concatenation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://airarabia-my.sharepoint.com/personal/malhaq_isa_ae1/Documents/Documents/ExcelColumnConvert/ExcelColumnConvert/src/test/resources/test_files/originals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_1E1A45A959F66FFC05FC9890E2FCDA74EA589DD0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61AD2408-2857-4912-8238-07A17F42599B}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_1E1A45A959F66FFC05FC9890E2FCDA74EA589DD0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{274B6830-1323-481A-80C1-64DCF21B1920}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>100.010.0</t>
   </si>
@@ -30,11 +30,18 @@
   <si>
     <t>300.030.0</t>
   </si>
+  <si>
+    <t>400.040.0</t>
+  </si>
+  <si>
+    <t>500.050.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -64,9 +71,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -82,10 +88,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,64 +380,64 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="0">
         <v>100</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="0">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="0">
         <v>200</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="0">
         <v>300</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="0">
         <v>400</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>40</v>
       </c>
-      <c r="C4" s="1">
-        <v>400</v>
+      <c r="C4" t="s" s="0">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="0">
         <v>500</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>50</v>
       </c>
-      <c r="C5">
-        <v>500</v>
+      <c r="C5" t="s" s="0">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
